--- a/miago/docs/python code/data/all_revision_082915.xlsx
+++ b/miago/docs/python code/data/all_revision_082915.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11260" uniqueCount="2981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11260" uniqueCount="2982">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11226,6 +11226,9 @@
   </si>
   <si>
     <t>miR-494-transfected cells after DEM treatment exhibited increase of protein levels of p53 and p21/WAF1</t>
+  </si>
+  <si>
+    <t>5C.C7 mice</t>
   </si>
 </sst>
 </file>
@@ -11709,21 +11712,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="J497" sqref="J497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="62.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="148.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="122.42578125" style="1" customWidth="1"/>
@@ -14075,7 +14078,7 @@
         <v>110</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>121</v>
+        <v>2981</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>122</v>
@@ -14107,7 +14110,7 @@
         <v>110</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>121</v>
+        <v>2981</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>125</v>
@@ -14148,7 +14151,7 @@
         <v>129</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>121</v>
+        <v>2981</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>130</v>
